--- a/assets/docs/Gantt.xlsx
+++ b/assets/docs/Gantt.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="CRONOGRAMA BCP" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExcesoPorcentajeCompletado">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
-  <si>
-    <t>Cruce de semanas y meses</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -108,19 +104,10 @@
     <t>5. User Testing</t>
   </si>
   <si>
-    <t>Planificador del proyecto - Banca digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para el desarrollo de las siguientes actividades se ha tomado de referencia las etapas del proceso de UX. Las actividades han sido divididas en sub bloques que abarquen el detalle de cada una de las etapas proceso de UX. </t>
-  </si>
-  <si>
     <t>FEBRERO - MARZO</t>
   </si>
   <si>
-    <t xml:space="preserve">Por otro lado, cada etapa cuenta con el detalle de las sub actividades, aquí se detallan los tiempos estimados, las areas involucradas y los recursos necesarios. Así mismo se especifica si las actividades son independientes o si tienen requerimientos previos a desarrollarse. </t>
-  </si>
-  <si>
-    <t>Estimación de duración del proyecto 20 días</t>
+    <t>Planner - Millennial Bank</t>
   </si>
 </sst>
 </file>
@@ -220,7 +207,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +217,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +767,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,12 +777,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,16 +792,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,31 +807,34 @@
     <xf numFmtId="3" fontId="7" fillId="5" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="5" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,19 +843,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,10 +864,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,16 +876,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,7 +897,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,124 +906,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,19 +1035,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,223 +1055,7 @@
     <cellStyle name="Period Highlight Control" xfId="5"/>
     <cellStyle name="Project Headers" xfId="6"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1975,974 +1728,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="91" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.25" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="4.375" style="18" customWidth="1"/>
-    <col min="25" max="16384" width="2.25" style="18"/>
+    <col min="1" max="1" width="39.375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="4.375" style="16" customWidth="1"/>
+    <col min="25" max="16384" width="2.25" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11">
+        <v>27</v>
+      </c>
+      <c r="G4" s="12">
         <v>28</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="53">
+        <v>2</v>
+      </c>
+      <c r="J4" s="51">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11">
+        <v>7</v>
+      </c>
+      <c r="M4" s="13">
+        <v>8</v>
+      </c>
+      <c r="N4" s="11">
+        <v>9</v>
+      </c>
+      <c r="O4" s="51">
+        <v>12</v>
+      </c>
+      <c r="P4" s="12">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>14</v>
+      </c>
+      <c r="R4" s="13">
+        <v>15</v>
+      </c>
+      <c r="S4" s="11">
+        <v>16</v>
+      </c>
+      <c r="T4" s="51">
+        <v>19</v>
+      </c>
+      <c r="U4" s="12">
+        <v>20</v>
+      </c>
+      <c r="V4" s="11">
+        <v>21</v>
+      </c>
+      <c r="W4" s="13">
+        <v>22</v>
+      </c>
+      <c r="X4" s="11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
+    <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="85"/>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
+    <row r="6" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="63"/>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
+    <row r="7" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="65"/>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
+    <row r="8" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="65"/>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+    <row r="9" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="65"/>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
+    <row r="10" spans="1:24" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="67"/>
     </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+    <row r="11" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="61"/>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
+    <row r="12" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="60"/>
+    </row>
+    <row r="13" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="60"/>
+    </row>
+    <row r="14" spans="1:24" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="90" t="s">
+      <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="12">
-        <v>26</v>
-      </c>
-      <c r="F12" s="13">
-        <v>27</v>
-      </c>
-      <c r="G12" s="14">
-        <v>28</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="55">
-        <v>2</v>
-      </c>
-      <c r="J12" s="53">
-        <v>5</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="D14" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="78"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="13">
-        <v>7</v>
-      </c>
-      <c r="M12" s="15">
-        <v>8</v>
-      </c>
-      <c r="N12" s="13">
-        <v>9</v>
-      </c>
-      <c r="O12" s="53">
-        <v>12</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="D15" s="84"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="85"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="13">
-        <v>14</v>
-      </c>
-      <c r="R12" s="15">
-        <v>15</v>
-      </c>
-      <c r="S12" s="13">
-        <v>16</v>
-      </c>
-      <c r="T12" s="53">
-        <v>19</v>
-      </c>
-      <c r="U12" s="14">
+      <c r="C16" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="85"/>
+    </row>
+    <row r="17" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="13">
-        <v>21</v>
-      </c>
-      <c r="W12" s="15">
-        <v>22</v>
-      </c>
-      <c r="X12" s="13">
-        <v>23</v>
-      </c>
+      <c r="B17" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="85"/>
     </row>
-    <row r="13" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="87"/>
-    </row>
-    <row r="14" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="65"/>
-    </row>
-    <row r="15" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="67"/>
-    </row>
-    <row r="16" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="67"/>
-    </row>
-    <row r="17" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="67"/>
-    </row>
-    <row r="18" spans="1:24" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="69"/>
-    </row>
-    <row r="19" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="18" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="63"/>
-    </row>
-    <row r="20" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="62"/>
-    </row>
-    <row r="21" spans="1:24" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="62"/>
-    </row>
-    <row r="22" spans="1:24" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="80"/>
-    </row>
-    <row r="23" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="87"/>
-    </row>
-    <row r="24" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="87"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="87"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="87"/>
+      <c r="C18" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A6:W6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E12:N14">
-    <cfRule type="expression" dxfId="35" priority="52">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E4:N6 S17:S18 X17:X18">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>F$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>F$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>F$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>F$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:N23">
-    <cfRule type="expression" dxfId="31" priority="34">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E15:N15">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:N24">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E16:N16">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:N25">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E17:N17">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:S14">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>O$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="O4:S6">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>O$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:S23">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>O$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="O15:S15">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>O$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24:S24">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>O$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="O16:S16">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>O$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25 S25">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>O$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>O$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>P$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="P17:Q17">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>P$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>R$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>R$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:X14">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>T$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="T4:X6">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>T$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23:X23">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>T$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="T15:X15">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>T$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24:X24">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>U$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="U16:X16">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>U$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25 X25">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>T$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>T$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>T$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>T$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:W25">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>U$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="U17:W17">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>U$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:N26">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>E$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="E18:N18">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>E$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26 S26">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>O$12=período_seleccionado</formula>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>O$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26 X26">
+  <conditionalFormatting sqref="T18">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>T$12=período_seleccionado</formula>
+      <formula>T$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26:W26">
+  <conditionalFormatting sqref="U18:W18">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>U$12=período_seleccionado</formula>
+      <formula>U$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:R26">
+  <conditionalFormatting sqref="P18:R18">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>P$12=período_seleccionado</formula>
+      <formula>P$4=período_seleccionado</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
